--- a/biology/Botanique/Riz_pluvial/Riz_pluvial.xlsx
+++ b/biology/Botanique/Riz_pluvial/Riz_pluvial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le riz pluvial (aussi appelé riz de montagne[1]) est le riz qui est cultivé sans être immergé, c'est-à-dire non pas dans une rizière, mais dans un champ.Il peut être utilisé comme culture de couvre-sol (lors des cultures sans-labour) protégeant le sol de l'érosion avant semis d'une autre plante (parfois désherbé avec un pesticide). 
-Ce mode de culture est dit « riziculture pluviale ». Il est aujourd'hui notamment développé en Afrique de l'ouest, et dans quelques zones tropicales à titre expérimental ou de culture traditionnelle[1]. 
-Les rendements sont plus faibles[1], mais moins dépendant d'une ressource abondante en eau.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le riz pluvial (aussi appelé riz de montagne) est le riz qui est cultivé sans être immergé, c'est-à-dire non pas dans une rizière, mais dans un champ.Il peut être utilisé comme culture de couvre-sol (lors des cultures sans-labour) protégeant le sol de l'érosion avant semis d'une autre plante (parfois désherbé avec un pesticide). 
+Ce mode de culture est dit « riziculture pluviale ». Il est aujourd'hui notamment développé en Afrique de l'ouest, et dans quelques zones tropicales à titre expérimental ou de culture traditionnelle. 
+Les rendements sont plus faibles, mais moins dépendant d'une ressource abondante en eau.
 </t>
         </is>
       </c>
